--- a/com.learnHybridframe/ApplicationTestData/AppData.xlsx
+++ b/com.learnHybridframe/ApplicationTestData/AppData.xlsx
@@ -10,17 +10,16 @@
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>sai_baba</t>
+    <t>rupa.debnath1987@gmail.com</t>
   </si>
   <si>
-    <t>rupa.debnath1987@gmail.com</t>
+    <t>sai_bab</t>
   </si>
 </sst>
 </file>
@@ -375,7 +374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -384,10 +385,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/com.learnHybridframe/ApplicationTestData/AppData.xlsx
+++ b/com.learnHybridframe/ApplicationTestData/AppData.xlsx
@@ -19,7 +19,7 @@
     <t>rupa.debnath1987@gmail.com</t>
   </si>
   <si>
-    <t>sai_bab</t>
+    <t>sai_baba</t>
   </si>
 </sst>
 </file>
